--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Rspo1</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +540,40 @@
         <v>0.351263</v>
       </c>
       <c r="I2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1171866666666667</v>
+        <v>0.4967476666666666</v>
       </c>
       <c r="N2">
-        <v>0.35156</v>
+        <v>1.490243</v>
       </c>
       <c r="O2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="P2">
-        <v>0.01740710573940341</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="Q2">
-        <v>0.01372111336444444</v>
+        <v>0.05816302521211111</v>
       </c>
       <c r="R2">
-        <v>0.12349002028</v>
+        <v>0.5234672269089999</v>
       </c>
       <c r="S2">
-        <v>0.007406812897737254</v>
+        <v>0.08283342158193596</v>
       </c>
       <c r="T2">
-        <v>0.007406812897737254</v>
+        <v>0.08283342158193596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>0.351263</v>
       </c>
       <c r="I3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>5.906929</v>
       </c>
       <c r="O3">
-        <v>0.29247507594194</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="P3">
-        <v>0.2924750759419399</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="Q3">
         <v>0.2305428445918889</v>
@@ -635,10 +632,10 @@
         <v>2.074885601327</v>
       </c>
       <c r="S3">
-        <v>0.1244496470110884</v>
+        <v>0.3283297691125296</v>
       </c>
       <c r="T3">
-        <v>0.1244496470110883</v>
+        <v>0.3283297691125296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +664,10 @@
         <v>0.351263</v>
       </c>
       <c r="I4">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4255051361566043</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,338 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.628736333333333</v>
+        <v>3.531223333333333</v>
       </c>
       <c r="N4">
-        <v>13.886209</v>
+        <v>10.59367</v>
       </c>
       <c r="O4">
-        <v>0.6875603264946389</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="P4">
-        <v>0.6875603264946388</v>
+        <v>0.5888368093055344</v>
       </c>
       <c r="Q4">
-        <v>0.5419679368852222</v>
+        <v>0.4134627005788888</v>
       </c>
       <c r="R4">
-        <v>4.877711431967001</v>
+        <v>3.72116430521</v>
       </c>
       <c r="S4">
-        <v>0.2925604503409807</v>
+        <v>0.5888368093055345</v>
       </c>
       <c r="T4">
-        <v>0.2925604503409806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1170876666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.351263</v>
-      </c>
-      <c r="I5">
-        <v>0.4255051361566043</v>
-      </c>
-      <c r="J5">
-        <v>0.4255051361566043</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01721733333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.051652</v>
-      </c>
-      <c r="O5">
-        <v>0.002557491824017706</v>
-      </c>
-      <c r="P5">
-        <v>0.002557491824017705</v>
-      </c>
-      <c r="Q5">
-        <v>0.002015937386222222</v>
-      </c>
-      <c r="R5">
-        <v>0.018143436476</v>
-      </c>
-      <c r="S5">
-        <v>0.001088225906798056</v>
-      </c>
-      <c r="T5">
-        <v>0.001088225906798056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.474257</v>
-      </c>
-      <c r="I6">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J6">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.1171866666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.35156</v>
-      </c>
-      <c r="O6">
-        <v>0.01740710573940341</v>
-      </c>
-      <c r="P6">
-        <v>0.01740710573940341</v>
-      </c>
-      <c r="Q6">
-        <v>0.01852553232444444</v>
-      </c>
-      <c r="R6">
-        <v>0.16672979092</v>
-      </c>
-      <c r="S6">
-        <v>0.01000029284166615</v>
-      </c>
-      <c r="T6">
-        <v>0.01000029284166615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.474257</v>
-      </c>
-      <c r="I7">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J7">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.968976333333333</v>
-      </c>
-      <c r="N7">
-        <v>5.906929</v>
-      </c>
-      <c r="O7">
-        <v>0.29247507594194</v>
-      </c>
-      <c r="P7">
-        <v>0.2924750759419399</v>
-      </c>
-      <c r="Q7">
-        <v>0.3112669363058889</v>
-      </c>
-      <c r="R7">
-        <v>2.801402426753</v>
-      </c>
-      <c r="S7">
-        <v>0.1680254289308516</v>
-      </c>
-      <c r="T7">
-        <v>0.1680254289308516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.474257</v>
-      </c>
-      <c r="I8">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J8">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>4.628736333333333</v>
-      </c>
-      <c r="N8">
-        <v>13.886209</v>
-      </c>
-      <c r="O8">
-        <v>0.6875603264946389</v>
-      </c>
-      <c r="P8">
-        <v>0.6875603264946388</v>
-      </c>
-      <c r="Q8">
-        <v>0.7317368690792222</v>
-      </c>
-      <c r="R8">
-        <v>6.585631821713</v>
-      </c>
-      <c r="S8">
-        <v>0.3949998761536583</v>
-      </c>
-      <c r="T8">
-        <v>0.3949998761536582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1580856666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.474257</v>
-      </c>
-      <c r="I9">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="J9">
-        <v>0.5744948638433957</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01721733333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.051652</v>
-      </c>
-      <c r="O9">
-        <v>0.002557491824017706</v>
-      </c>
-      <c r="P9">
-        <v>0.002557491824017705</v>
-      </c>
-      <c r="Q9">
-        <v>0.002721813618222222</v>
-      </c>
-      <c r="R9">
-        <v>0.024496322564</v>
-      </c>
-      <c r="S9">
-        <v>0.00146926591721965</v>
-      </c>
-      <c r="T9">
-        <v>0.001469265917219649</v>
+        <v>0.5888368093055344</v>
       </c>
     </row>
   </sheetData>
